--- a/data/forma_em.xlsx
+++ b/data/forma_em.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vasco Abreu - PC\Documents\Python Projects\Matriz_Energia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C053A95-08E9-49C3-8215-B83C230115C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3BDDA9-5EFF-40EA-B412-07C6C56776B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="2625" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -506,21 +506,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -560,22 +558,22 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>45327.367763343354</v>
+        <v>45.327367763343354</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7841526.9051182531</v>
+        <v>7841.5269051182531</v>
       </c>
       <c r="E2">
-        <v>367589.57792290905</v>
+        <v>367.58957792290903</v>
       </c>
       <c r="F2">
-        <v>2043401.8737914735</v>
+        <v>2078.1166788018318</v>
       </c>
       <c r="G2">
-        <v>1195911.7684717106</v>
+        <v>1195.9117684717107</v>
       </c>
       <c r="H2">
         <v>2008</v>
@@ -592,22 +590,22 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>2342649.3323795572</v>
+        <v>2342.6493323795571</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>8382021.8414492086</v>
+        <v>8382.0218414492083</v>
       </c>
       <c r="E3">
-        <v>1644603.8908217947</v>
+        <v>1644.6038908217947</v>
       </c>
       <c r="F3">
-        <v>12136537.529183866</v>
+        <v>52186.420539434373</v>
       </c>
       <c r="G3">
-        <v>32401955.502437882</v>
+        <v>32401.955502437882</v>
       </c>
       <c r="H3">
         <v>2008</v>
@@ -624,22 +622,22 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>4444244.4952763794</v>
+        <v>4444.244495276379</v>
       </c>
       <c r="C4">
-        <v>298005611.48948437</v>
+        <v>298005.61148948438</v>
       </c>
       <c r="D4">
-        <v>806136393.65558147</v>
+        <v>806136.39365558152</v>
       </c>
       <c r="E4">
-        <v>24529642.594060794</v>
+        <v>24529.642594060795</v>
       </c>
       <c r="F4">
-        <v>59059852.54690282</v>
+        <v>60063.204501994282</v>
       </c>
       <c r="G4">
-        <v>2285963.0593592757</v>
+        <v>2285.9630593592756</v>
       </c>
       <c r="H4">
         <v>2008</v>
@@ -656,22 +654,22 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>3904632.2831833754</v>
+        <v>3904.6322831833754</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>20856298.319628973</v>
+        <v>20856.298319628972</v>
       </c>
       <c r="E5">
-        <v>99173759.333862975</v>
+        <v>99173.759333862981</v>
       </c>
       <c r="F5">
-        <v>835405928.4123764</v>
+        <v>846146.13202739961</v>
       </c>
       <c r="G5">
-        <v>90782712.785193607</v>
+        <v>90782.712785193609</v>
       </c>
       <c r="H5">
         <v>2008</v>
@@ -688,7 +686,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>23945653.651074249</v>
+        <v>23945.653651074248</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -700,10 +698,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>272204032.59200138</v>
+        <v>276828.4337123406</v>
       </c>
       <c r="G6">
-        <v>122182020.16093814</v>
+        <v>122182.02016093815</v>
       </c>
       <c r="H6">
         <v>2008</v>
@@ -720,22 +718,22 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>29670.616885047122</v>
+        <v>29.670616885047121</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>7636040.2764753737</v>
+        <v>7636.0402764753735</v>
       </c>
       <c r="E7">
-        <v>26748.634619266562</v>
+        <v>26.748634619266561</v>
       </c>
       <c r="F7">
-        <v>1777970.3942422871</v>
+        <v>1803.3109335033512</v>
       </c>
       <c r="G7">
-        <v>659376.05322405964</v>
+        <v>659.37605322405966</v>
       </c>
       <c r="H7">
         <v>2009</v>
@@ -752,22 +750,22 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>2813216.8405159363</v>
+        <v>2813.2168405159364</v>
       </c>
       <c r="C8">
-        <v>772505.90274253627</v>
+        <v>772.50590274253625</v>
       </c>
       <c r="D8">
-        <v>13364966.899350449</v>
+        <v>13364.966899350449</v>
       </c>
       <c r="E8">
-        <v>390412.307168208</v>
+        <v>390.41230716820803</v>
       </c>
       <c r="F8">
-        <v>61258981.545449063</v>
+        <v>62648.468813893713</v>
       </c>
       <c r="G8">
-        <v>32693309.822694551</v>
+        <v>32693.309822694551</v>
       </c>
       <c r="H8">
         <v>2009</v>
@@ -784,22 +782,22 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>5157253.6269036178</v>
+        <v>5157.2536269036182</v>
       </c>
       <c r="C9">
-        <v>334726572.61932623</v>
+        <v>334726.57261932624</v>
       </c>
       <c r="D9">
-        <v>1232736867.831825</v>
+        <v>1232736.867831825</v>
       </c>
       <c r="E9">
-        <v>23308626.201659951</v>
+        <v>23308.62620165995</v>
       </c>
       <c r="F9">
-        <v>67211583.815953061</v>
+        <v>68169.517527336546</v>
       </c>
       <c r="G9">
-        <v>839312.70611965936</v>
+        <v>839.31270611965931</v>
       </c>
       <c r="H9">
         <v>2009</v>
@@ -816,22 +814,22 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>2862842.9936057087</v>
+        <v>2862.8429936057087</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>13016317.082331477</v>
+        <v>13016.317082331476</v>
       </c>
       <c r="E10">
-        <v>20577391.19350734</v>
+        <v>20577.391193507341</v>
       </c>
       <c r="F10">
-        <v>896620647.24220788</v>
+        <v>908000.67435943347</v>
       </c>
       <c r="G10">
-        <v>80076733.924832329</v>
+        <v>80076.733924832326</v>
       </c>
       <c r="H10">
         <v>2009</v>
@@ -848,7 +846,7 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>23870019.991890755</v>
+        <v>23870.019991890753</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -860,10 +858,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>320496493.14240265</v>
+        <v>325064.37233420985</v>
       </c>
       <c r="G11">
-        <v>116941916.63679424</v>
+        <v>116941.91663679424</v>
       </c>
       <c r="H11">
         <v>2009</v>
@@ -880,22 +878,22 @@
         <v>9</v>
       </c>
       <c r="B12">
-        <v>39763.038613604047</v>
+        <v>39.763038613604046</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3487629.9584576981</v>
+        <v>3487.6299584576982</v>
       </c>
       <c r="E12">
-        <v>479294.94956247584</v>
+        <v>479.29494956247584</v>
       </c>
       <c r="F12">
-        <v>1153543.6754043738</v>
+        <v>1169.7558440750684</v>
       </c>
       <c r="G12">
-        <v>369065.53972530004</v>
+        <v>369.06553972530003</v>
       </c>
       <c r="H12">
         <v>2010</v>
@@ -912,22 +910,22 @@
         <v>10</v>
       </c>
       <c r="B13">
-        <v>5524786.7105077608</v>
+        <v>5524.7867105077612</v>
       </c>
       <c r="C13">
-        <v>812762.5885705878</v>
+        <v>812.76258857058781</v>
       </c>
       <c r="D13">
-        <v>6118291.4632825619</v>
+        <v>6118.2914632825623</v>
       </c>
       <c r="E13">
-        <v>2228539.0856437441</v>
+        <v>2228.5390856437439</v>
       </c>
       <c r="F13">
-        <v>42791282.896538235</v>
+        <v>43713.774514764933</v>
       </c>
       <c r="G13">
-        <v>32751927.985182129</v>
+        <v>32751.92798518213</v>
       </c>
       <c r="H13">
         <v>2010</v>
@@ -944,22 +942,22 @@
         <v>11</v>
       </c>
       <c r="B14">
-        <v>4895930.4378837803</v>
+        <v>4895.9304378837805</v>
       </c>
       <c r="C14">
-        <v>334691213.0232895</v>
+        <v>334691.21302328951</v>
       </c>
       <c r="D14">
-        <v>1098789854.6242812</v>
+        <v>1098789.8546242812</v>
       </c>
       <c r="E14">
-        <v>654386.47605724458</v>
+        <v>654.38647605724464</v>
       </c>
       <c r="F14">
-        <v>50195967.435391277</v>
+        <v>50901.382704009651</v>
       </c>
       <c r="G14">
-        <v>930348.45998028014</v>
+        <v>930.34845998028015</v>
       </c>
       <c r="H14">
         <v>2010</v>
@@ -976,22 +974,22 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>28331207.100232877</v>
+        <v>28331.207100232878</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>23435771.565896288</v>
+        <v>23435.771565896288</v>
       </c>
       <c r="E15">
-        <v>67791198.362305447</v>
+        <v>67791.198362305455</v>
       </c>
       <c r="F15">
-        <v>631849332.90708315</v>
+        <v>639709.08353080787</v>
       </c>
       <c r="G15">
-        <v>92245764.450736746</v>
+        <v>92245.764450736751</v>
       </c>
       <c r="H15">
         <v>2010</v>
@@ -1008,7 +1006,7 @@
         <v>13</v>
       </c>
       <c r="B16">
-        <v>-1796686.1801824167</v>
+        <v>-1796.6861801824166</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1020,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>231843829.863581</v>
+        <v>235102.21648140065</v>
       </c>
       <c r="G16">
-        <v>130594048.71845806</v>
+        <v>130594.04871845806</v>
       </c>
       <c r="H16">
         <v>2010</v>
@@ -1040,22 +1038,22 @@
         <v>9</v>
       </c>
       <c r="B17">
-        <v>18138.493926302042</v>
+        <v>18.138493926302043</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>7641636.6707406901</v>
+        <v>7641.6366707406896</v>
       </c>
       <c r="E17">
-        <v>310561.59360596206</v>
+        <v>310.56159360596206</v>
       </c>
       <c r="F17">
-        <v>1235129.4846890722</v>
+        <v>1249.0488727049562</v>
       </c>
       <c r="G17">
-        <v>418007.99705472722</v>
+        <v>418.00799705472724</v>
       </c>
       <c r="H17">
         <v>2011</v>
@@ -1072,22 +1070,22 @@
         <v>10</v>
       </c>
       <c r="B18">
-        <v>6618916.106099043</v>
+        <v>6618.9161060990427</v>
       </c>
       <c r="C18">
-        <v>633664.48630029347</v>
+        <v>633.66448630029345</v>
       </c>
       <c r="D18">
-        <v>7128409.9417829309</v>
+        <v>7128.4099417829311</v>
       </c>
       <c r="E18">
-        <v>4347663.6515783332</v>
+        <v>4347.663651578333</v>
       </c>
       <c r="F18">
-        <v>54145931.661618099</v>
+        <v>55109.23697677561</v>
       </c>
       <c r="G18">
-        <v>18113423.22426131</v>
+        <v>18113.423224261311</v>
       </c>
       <c r="H18">
         <v>2011</v>
@@ -1104,22 +1102,22 @@
         <v>11</v>
       </c>
       <c r="B19">
-        <v>4502160.5409335243</v>
+        <v>4502.1605409335243</v>
       </c>
       <c r="C19">
-        <v>466184240.10340893</v>
+        <v>466184.24010340893</v>
       </c>
       <c r="D19">
-        <v>1267847092.7956281</v>
+        <v>1267847.0927956281</v>
       </c>
       <c r="E19">
-        <v>4773.8303336995205</v>
+        <v>4.7738303336995207</v>
       </c>
       <c r="F19">
-        <v>52201254.224082127</v>
+        <v>52789.490835078155</v>
       </c>
       <c r="G19">
-        <v>5302078.083866125</v>
+        <v>5302.0780838661249</v>
       </c>
       <c r="H19">
         <v>2011</v>
@@ -1136,22 +1134,22 @@
         <v>12</v>
       </c>
       <c r="B20">
-        <v>24308414.821729943</v>
+        <v>24308.414821729944</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>7218841.9816865167</v>
+        <v>7218.8419816865171</v>
       </c>
       <c r="E20">
-        <v>49674952.556142434</v>
+        <v>49674.952556142438</v>
       </c>
       <c r="F20">
-        <v>705849405.55756462</v>
+        <v>713018.29052547493</v>
       </c>
       <c r="G20">
-        <v>101365598.40814474</v>
+        <v>101365.59840814474</v>
       </c>
       <c r="H20">
         <v>2011</v>
@@ -1168,22 +1166,22 @@
         <v>13</v>
       </c>
       <c r="B21">
-        <v>83253.045734388725</v>
+        <v>83.253045734388721</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>8757188.1740037836</v>
+        <v>8757.1881740037843</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>257327049.36847311</v>
+        <v>260227.01661202405</v>
       </c>
       <c r="G21">
-        <v>105479239.14290832</v>
+        <v>105479.23914290832</v>
       </c>
       <c r="H21">
         <v>2011</v>
@@ -1200,22 +1198,22 @@
         <v>9</v>
       </c>
       <c r="B22">
-        <v>5378.5612490698804</v>
+        <v>5.3785612490698806</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>11441855.469374521</v>
+        <v>11441.855469374521</v>
       </c>
       <c r="E22">
-        <v>404221.07402185764</v>
+        <v>404.22107402185765</v>
       </c>
       <c r="F22">
-        <v>2868206.0207515825</v>
+        <v>2916.8914583646119</v>
       </c>
       <c r="G22">
-        <v>405099.37315314729</v>
+        <v>405.09937315314727</v>
       </c>
       <c r="H22">
         <v>2012</v>
@@ -1232,22 +1230,22 @@
         <v>10</v>
       </c>
       <c r="B23">
-        <v>2125771.1135948822</v>
+        <v>2125.7711135948821</v>
       </c>
       <c r="C23">
-        <v>107896.01847671057</v>
+        <v>107.89601847671057</v>
       </c>
       <c r="D23">
-        <v>1184595.025942361</v>
+        <v>1184.595025942361</v>
       </c>
       <c r="E23">
-        <v>2787810.1337552834</v>
+        <v>2787.8101337552835</v>
       </c>
       <c r="F23">
-        <v>45562127.491439112</v>
+        <v>46793.473151612277</v>
       </c>
       <c r="G23">
-        <v>49912757.158891894</v>
+        <v>49912.757158891895</v>
       </c>
       <c r="H23">
         <v>2012</v>
@@ -1264,22 +1262,22 @@
         <v>11</v>
       </c>
       <c r="B24">
-        <v>4717453.9273156142</v>
+        <v>4717.4539273156142</v>
       </c>
       <c r="C24">
-        <v>376563864.0469625</v>
+        <v>376563.86404696252</v>
       </c>
       <c r="D24">
-        <v>1050778184.3143939</v>
+        <v>1050778.1843143939</v>
       </c>
       <c r="E24">
-        <v>81.223238388959999</v>
+        <v>8.1223238388959992E-2</v>
       </c>
       <c r="F24">
-        <v>50212154.093444489</v>
+        <v>51064.409729284693</v>
       </c>
       <c r="G24">
-        <v>5115759.6075248532</v>
+        <v>5115.759607524853</v>
       </c>
       <c r="H24">
         <v>2012</v>
@@ -1296,22 +1294,22 @@
         <v>12</v>
       </c>
       <c r="B25">
-        <v>25830425.745031904</v>
+        <v>25830.425745031906</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>5998843.9037915263</v>
+        <v>5998.8439037915259</v>
       </c>
       <c r="E25">
-        <v>32776174.62256569</v>
+        <v>32776.17462256569</v>
       </c>
       <c r="F25">
-        <v>756805505.34074056</v>
+        <v>768912.27965256094</v>
       </c>
       <c r="G25">
-        <v>109124860.16264054</v>
+        <v>109124.86016264054</v>
       </c>
       <c r="H25">
         <v>2012</v>
@@ -1328,22 +1326,22 @@
         <v>13</v>
       </c>
       <c r="B26">
-        <v>6611790.1655343007</v>
+        <v>6611.7901655343012</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
-        <v>8004820.879146832</v>
+        <v>8004.8208791468323</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>258968002.89138633</v>
+        <v>263363.77169506374</v>
       </c>
       <c r="G26">
-        <v>102148348.69214721</v>
+        <v>102148.34869214721</v>
       </c>
       <c r="H26">
         <v>2012</v>
@@ -1360,22 +1358,22 @@
         <v>9</v>
       </c>
       <c r="B27">
-        <v>7143.356305429561</v>
+        <v>7.1433563054295606</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>3569199.3298371006</v>
+        <v>3569.1993298371008</v>
       </c>
       <c r="E27">
-        <v>222005.81549021986</v>
+        <v>222.00581549021985</v>
       </c>
       <c r="F27">
-        <v>3463650.5294866096</v>
+        <v>3529.7996107712593</v>
       </c>
       <c r="G27">
-        <v>340678.59297120007</v>
+        <v>340.67859297120009</v>
       </c>
       <c r="H27">
         <v>2013</v>
@@ -1392,22 +1390,22 @@
         <v>10</v>
       </c>
       <c r="B28">
-        <v>1569068.2546402896</v>
+        <v>1569.0682546402895</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28">
-        <v>381064.15169546724</v>
+        <v>381.06415169546722</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>31486148.595019054</v>
+        <v>32437.410849458109</v>
       </c>
       <c r="G28">
-        <v>17717658.64749144</v>
+        <v>17717.65864749144</v>
       </c>
       <c r="H28">
         <v>2013</v>
@@ -1424,22 +1422,22 @@
         <v>11</v>
       </c>
       <c r="B29">
-        <v>4272516.5842247223</v>
+        <v>4272.5165842247225</v>
       </c>
       <c r="C29">
-        <v>171699785.98405433</v>
+        <v>171699.78598405432</v>
       </c>
       <c r="D29">
-        <v>508239382.70902908</v>
+        <v>508239.38270902907</v>
       </c>
       <c r="E29">
-        <v>750348.13655060495</v>
+        <v>750.34813655060498</v>
       </c>
       <c r="F29">
-        <v>45291959.804384843</v>
+        <v>46156.910894834546</v>
       </c>
       <c r="G29">
-        <v>5067486.2607652806</v>
+        <v>5067.4862607652803</v>
       </c>
       <c r="H29">
         <v>2013</v>
@@ -1456,22 +1454,22 @@
         <v>12</v>
       </c>
       <c r="B30">
-        <v>1786059.6757394352</v>
+        <v>1786.0596757394353</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30">
-        <v>1461600.0892970208</v>
+        <v>1461.6000892970208</v>
       </c>
       <c r="E30">
-        <v>85398.435119910238</v>
+        <v>85.398435119910232</v>
       </c>
       <c r="F30">
-        <v>656079711.61663151</v>
+        <v>668002.15464937512</v>
       </c>
       <c r="G30">
-        <v>100948888.82015789</v>
+        <v>100948.88882015788</v>
       </c>
       <c r="H30">
         <v>2013</v>
@@ -1488,22 +1486,22 @@
         <v>13</v>
       </c>
       <c r="B31">
-        <v>21176144.514437694</v>
+        <v>21176.144514437696</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31">
-        <v>1130754.3976794719</v>
+        <v>1130.7543976794718</v>
       </c>
       <c r="E31">
-        <v>157.03699385088001</v>
+        <v>0.15703699385088002</v>
       </c>
       <c r="F31">
-        <v>218227555.32131472</v>
+        <v>222395.28303304772</v>
       </c>
       <c r="G31">
-        <v>92872218.734388739</v>
+        <v>92872.218734388734</v>
       </c>
       <c r="H31">
         <v>2013</v>
@@ -1520,22 +1518,22 @@
         <v>9</v>
       </c>
       <c r="B32">
-        <v>7564.2367053837615</v>
+        <v>7.5642367053837614</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32">
-        <v>4253788.4538872931</v>
+        <v>4253.7884538872931</v>
       </c>
       <c r="E32">
-        <v>193883.10717475813</v>
+        <v>193.88310717475812</v>
       </c>
       <c r="F32">
-        <v>3312252.791274251</v>
+        <v>3380.1778676563481</v>
       </c>
       <c r="G32">
-        <v>318921.23697984003</v>
+        <v>318.92123697984005</v>
       </c>
       <c r="H32">
         <v>2014</v>
@@ -1552,22 +1550,22 @@
         <v>10</v>
       </c>
       <c r="B33">
-        <v>1192058.1054785568</v>
+        <v>1192.0581054785569</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33">
-        <v>726956.98560228746</v>
+        <v>726.95698560228743</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>29186646.045279562</v>
+        <v>29851.454495891328</v>
       </c>
       <c r="G33">
-        <v>70159699.500865921</v>
+        <v>70159.699500865914</v>
       </c>
       <c r="H33">
         <v>2014</v>
@@ -1584,22 +1582,22 @@
         <v>11</v>
       </c>
       <c r="B34">
-        <v>3468980.4325025077</v>
+        <v>3468.9804325025075</v>
       </c>
       <c r="C34">
-        <v>176325680.76670891</v>
+        <v>176325.68076670892</v>
       </c>
       <c r="D34">
-        <v>537317867.19307554</v>
+        <v>537317.8671930756</v>
       </c>
       <c r="E34">
-        <v>1709906.374355458</v>
+        <v>1709.906374355458</v>
       </c>
       <c r="F34">
-        <v>38748157.191253759</v>
+        <v>39542.726604176445</v>
       </c>
       <c r="G34">
-        <v>5601293.0968896002</v>
+        <v>5601.2930968895998</v>
       </c>
       <c r="H34">
         <v>2014</v>
@@ -1616,22 +1614,22 @@
         <v>12</v>
       </c>
       <c r="B35">
-        <v>1663380.2957114058</v>
+        <v>1663.3802957114058</v>
       </c>
       <c r="C35">
-        <v>9.7572362469120026</v>
+        <v>9.757236246912002E-3</v>
       </c>
       <c r="D35">
-        <v>1043222.1441860988</v>
+        <v>1043.2221441860988</v>
       </c>
       <c r="E35">
-        <v>560571.39045103686</v>
+        <v>560.5713904510369</v>
       </c>
       <c r="F35">
-        <v>642587881.36791265</v>
+        <v>655126.46368104091</v>
       </c>
       <c r="G35">
-        <v>96065573.908455417</v>
+        <v>96065.573908455422</v>
       </c>
       <c r="H35">
         <v>2014</v>
@@ -1648,22 +1646,22 @@
         <v>13</v>
       </c>
       <c r="B36">
-        <v>20880747.428762253</v>
+        <v>20880.747428762254</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36">
-        <v>1174377.3991435694</v>
+        <v>1174.3773991435694</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>208177152.07609141</v>
+        <v>212446.28545655898</v>
       </c>
       <c r="G36">
-        <v>101057264.56102464</v>
+        <v>101057.26456102464</v>
       </c>
       <c r="H36">
         <v>2014</v>
@@ -1680,22 +1678,22 @@
         <v>9</v>
       </c>
       <c r="B37">
-        <v>5561.4265262913596</v>
+        <v>5.5614265262913598</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37">
-        <v>4375140.6371349888</v>
+        <v>4375.1406371349885</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>2346199.1839278159</v>
+        <v>2389.3519628603576</v>
       </c>
       <c r="G37">
-        <v>216589.41489240003</v>
+        <v>216.58941489240004</v>
       </c>
       <c r="H37">
         <v>2015</v>
@@ -1712,22 +1710,22 @@
         <v>10</v>
       </c>
       <c r="B38">
-        <v>1546047.5480745188</v>
+        <v>1546.0475480745188</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="D38">
-        <v>4961958.5888764476</v>
+        <v>4961.9585888764477</v>
       </c>
       <c r="E38">
-        <v>1474705.8630114712</v>
+        <v>1474.7058630114711</v>
       </c>
       <c r="F38">
-        <v>35191633.721611135</v>
+        <v>35881.074081673389</v>
       </c>
       <c r="G38">
-        <v>60773703.149016008</v>
+        <v>60773.703149016008</v>
       </c>
       <c r="H38">
         <v>2015</v>
@@ -1744,22 +1742,22 @@
         <v>11</v>
       </c>
       <c r="B39">
-        <v>3965593.1808374315</v>
+        <v>3965.5931808374316</v>
       </c>
       <c r="C39">
-        <v>173956979.90239388</v>
+        <v>173956.97990239388</v>
       </c>
       <c r="D39">
-        <v>567522417.3328439</v>
+        <v>567522.41733284388</v>
       </c>
       <c r="E39">
-        <v>1573930.8129789464</v>
+        <v>1573.9308129789463</v>
       </c>
       <c r="F39">
-        <v>46475692.505467676</v>
+        <v>47330.502829400917</v>
       </c>
       <c r="G39">
-        <v>5914392.1413192004</v>
+        <v>5914.3921413192002</v>
       </c>
       <c r="H39">
         <v>2015</v>
@@ -1776,22 +1774,22 @@
         <v>12</v>
       </c>
       <c r="B40">
-        <v>1761155.1665559378</v>
+        <v>20084.044052636535</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40">
-        <v>550067.56812831049</v>
+        <v>161.66437872903109</v>
       </c>
       <c r="E40">
-        <v>418648.31225444161</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>818085157.77881312</v>
+        <v>267927.78332392115</v>
       </c>
       <c r="G40">
-        <v>94941219.460705206</v>
+        <v>94754.652340946399</v>
       </c>
       <c r="H40">
         <v>2015</v>
@@ -1808,22 +1806,22 @@
         <v>13</v>
       </c>
       <c r="B41">
-        <v>20084044.052636534</v>
+        <v>1761.1551665559377</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41">
-        <v>161664.37872903107</v>
+        <v>550.06756812831054</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>418.64831225444163</v>
       </c>
       <c r="F41">
-        <v>263088886.17382437</v>
+        <v>832464.57209277945</v>
       </c>
       <c r="G41">
-        <v>94754652.340946406</v>
+        <v>94941.219460705208</v>
       </c>
       <c r="H41">
         <v>2015</v>
@@ -1840,22 +1838,22 @@
         <v>9</v>
       </c>
       <c r="B42">
-        <v>2351.1249928476004</v>
+        <v>2.3511249928476006</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42">
-        <v>3031070.3571329182</v>
+        <v>3031.0703571329182</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>6767254.5170968007</v>
+        <v>6893.7595690166072</v>
       </c>
       <c r="G42">
-        <v>222900.62651999999</v>
+        <v>222.90062652</v>
       </c>
       <c r="H42">
         <v>2016</v>
@@ -1872,22 +1870,22 @@
         <v>10</v>
       </c>
       <c r="B43">
-        <v>1938421.2831463034</v>
+        <v>1938.4212831463035</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43">
-        <v>847677.97309557931</v>
+        <v>847.67797309557932</v>
       </c>
       <c r="E43">
-        <v>186688.91126039473</v>
+        <v>186.68891126039472</v>
       </c>
       <c r="F43">
-        <v>34251665.102752164</v>
+        <v>35092.444140035172</v>
       </c>
       <c r="G43">
-        <v>68664109.344435006</v>
+        <v>68664.109344435012</v>
       </c>
       <c r="H43">
         <v>2016</v>
@@ -1904,22 +1902,22 @@
         <v>11</v>
       </c>
       <c r="B44">
-        <v>3499971.7430563755</v>
+        <v>3499.9717430563755</v>
       </c>
       <c r="C44">
-        <v>187282218.87051314</v>
+        <v>187282.21887051314</v>
       </c>
       <c r="D44">
-        <v>602188902.77116871</v>
+        <v>602188.90277116874</v>
       </c>
       <c r="E44">
-        <v>1098845.6112240625</v>
+        <v>1098.8456112240624</v>
       </c>
       <c r="F44">
-        <v>49128904.130101442</v>
+        <v>50047.305315107864</v>
       </c>
       <c r="G44">
-        <v>3718582.567425</v>
+        <v>3718.582567425</v>
       </c>
       <c r="H44">
         <v>2016</v>
@@ -1936,22 +1934,22 @@
         <v>12</v>
       </c>
       <c r="B45">
-        <v>2781128.3382987385</v>
+        <v>2781.1283382987385</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="D45">
-        <v>2762148.624953629</v>
+        <v>2762.1486249536288</v>
       </c>
       <c r="E45">
-        <v>37149.542218170725</v>
+        <v>37.149542218170723</v>
       </c>
       <c r="F45">
-        <v>763224605.78454638</v>
+        <v>776778.25287846569</v>
       </c>
       <c r="G45">
-        <v>94516295.470245004</v>
+        <v>94516.295470245008</v>
       </c>
       <c r="H45">
         <v>2016</v>
@@ -1968,22 +1966,22 @@
         <v>13</v>
       </c>
       <c r="B46">
-        <v>17596481.244617574</v>
+        <v>17596.481244617575</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
       <c r="D46">
-        <v>56693.089155923029</v>
+        <v>56.693089155923026</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
       <c r="F46">
-        <v>248738981.57565495</v>
+        <v>253388.83443684271</v>
       </c>
       <c r="G46">
-        <v>82912603.239675</v>
+        <v>82912.603239674994</v>
       </c>
       <c r="H46">
         <v>2016</v>
@@ -2000,22 +1998,22 @@
         <v>9</v>
       </c>
       <c r="B47">
-        <v>2307.5856411282002</v>
+        <v>2.3075856411282003</v>
       </c>
       <c r="C47">
         <v>0</v>
       </c>
       <c r="D47">
-        <v>4065497.7203092691</v>
+        <v>4065.497720309269</v>
       </c>
       <c r="E47">
-        <v>157.03699385087998</v>
+        <v>0.15703699385087999</v>
       </c>
       <c r="F47">
-        <v>4221857.7104334123</v>
+        <v>4224.7426067214083</v>
       </c>
       <c r="G47">
-        <v>284412.62633850001</v>
+        <v>284.41262633849999</v>
       </c>
       <c r="H47">
         <v>2017</v>
@@ -2032,22 +2030,22 @@
         <v>10</v>
       </c>
       <c r="B48">
-        <v>1132139.2496423186</v>
+        <v>1132.1392496423186</v>
       </c>
       <c r="C48">
         <v>0</v>
       </c>
       <c r="D48">
-        <v>862533.64820476412</v>
+        <v>862.53364820476418</v>
       </c>
       <c r="E48">
-        <v>908440.83074534824</v>
+        <v>908.44083074534819</v>
       </c>
       <c r="F48">
-        <v>42043612.480553262</v>
+        <v>42072.319737272745</v>
       </c>
       <c r="G48">
-        <v>71801007.007652998</v>
+        <v>71801.007007652996</v>
       </c>
       <c r="H48">
         <v>2017</v>
@@ -2064,22 +2062,22 @@
         <v>11</v>
       </c>
       <c r="B49">
-        <v>3009149.7285001324</v>
+        <v>3009.1497285001324</v>
       </c>
       <c r="C49">
-        <v>174126527.03639153</v>
+        <v>174126.52703639152</v>
       </c>
       <c r="D49">
-        <v>592435102.44499004</v>
+        <v>592435.10244499007</v>
       </c>
       <c r="E49">
-        <v>2492416.2932036268</v>
+        <v>2492.4162932036265</v>
       </c>
       <c r="F49">
-        <v>91508137.473465338</v>
+        <v>91570.66717110679</v>
       </c>
       <c r="G49">
-        <v>3514542.7631489998</v>
+        <v>3514.5427631489997</v>
       </c>
       <c r="H49">
         <v>2017</v>
@@ -2096,22 +2094,22 @@
         <v>12</v>
       </c>
       <c r="B50">
-        <v>1774057.3277821203</v>
+        <v>1774.0573277821204</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
       <c r="D50">
-        <v>444181.05923404981</v>
+        <v>444.18105923404983</v>
       </c>
       <c r="E50">
-        <v>49419.20100728736</v>
+        <v>49.419201007287363</v>
       </c>
       <c r="F50">
-        <v>910083246.36825383</v>
+        <v>909780.71563789621</v>
       </c>
       <c r="G50">
-        <v>99213926.174154043</v>
+        <v>99213.926174154039</v>
       </c>
       <c r="H50">
         <v>2017</v>
@@ -2128,22 +2126,22 @@
         <v>13</v>
       </c>
       <c r="B51">
-        <v>15965317.166555077</v>
+        <v>15965.317166555076</v>
       </c>
       <c r="C51">
         <v>0</v>
       </c>
       <c r="D51">
-        <v>101592.89259734603</v>
+        <v>101.59289259734602</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
       <c r="F51">
-        <v>304990829.08998048</v>
+        <v>305199.23661364947</v>
       </c>
       <c r="G51">
-        <v>92607065.873090997</v>
+        <v>92607.065873090993</v>
       </c>
       <c r="H51">
         <v>2017</v>
